--- a/tabs/cluster_sum.xlsx
+++ b/tabs/cluster_sum.xlsx
@@ -495,31 +495,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2154.168269230769</v>
+        <v>2271.325892857143</v>
       </c>
       <c r="C2" t="n">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6002625570732889</v>
+        <v>0.6014461657843614</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2614805128322594</v>
+        <v>0.2539456642590378</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06580653074667882</v>
+        <v>0.06698943551544333</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01209616775016198</v>
+        <v>0.01174509978070864</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1462815551610159</v>
+        <v>0.1423715009126928</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1139873105490235</v>
+        <v>0.1140977635062004</v>
       </c>
       <c r="J2" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -530,31 +530,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>142835.5095541401</v>
+        <v>19539.40024630542</v>
       </c>
       <c r="C3" t="n">
-        <v>475</v>
+        <v>812</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141474976452573</v>
+        <v>0.4350530495408141</v>
       </c>
       <c r="E3" t="n">
-        <v>0.251068132312619</v>
+        <v>0.2417765521100257</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02163526439670731</v>
+        <v>0.07536795491979049</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04457046697151535</v>
+        <v>0.01515534984687518</v>
       </c>
       <c r="H3" t="n">
-        <v>0.291362711953655</v>
+        <v>0.1408870074567197</v>
       </c>
       <c r="I3" t="n">
-        <v>0.164846900449606</v>
+        <v>0.1460742656532444</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05052631578947368</v>
+        <v>0.002463054187192118</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -565,31 +565,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18558.15047879617</v>
+        <v>831866.7717842323</v>
       </c>
       <c r="C4" t="n">
-        <v>731</v>
+        <v>245</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4856011671792814</v>
+        <v>-0.1777495855196479</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1612756994866629</v>
+        <v>0.2475516863678265</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08085043135482237</v>
+        <v>-0.008975337249607647</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01489913301425987</v>
+        <v>0.05573450551169317</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1441250299860285</v>
+        <v>0.2670605357714252</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1503361666454478</v>
+        <v>0.1851396145940806</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.07755102040816327</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -600,31 +600,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>804831.4921259843</v>
+        <v>157672.180952381</v>
       </c>
       <c r="C5" t="n">
-        <v>258</v>
+        <v>424</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1645887440085286</v>
+        <v>0.1347852826689614</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2499656392499218</v>
+        <v>0.2489950878245923</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.008006000127811342</v>
+        <v>0.01866252965682585</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05569998451484218</v>
+        <v>0.0452689156454677</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2721062086692033</v>
+        <v>0.2982780145768612</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1862877354297249</v>
+        <v>0.1665209188422025</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08527131782945736</v>
+        <v>0.05424528301886793</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -635,34 +635,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46301.30666666666</v>
+        <v>7683.529307282416</v>
       </c>
       <c r="C6" t="n">
-        <v>750</v>
+        <v>563</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3438918259969675</v>
+        <v>0.4325447714411564</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2283927967365618</v>
+        <v>0.296234995268464</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0584407962938278</v>
+        <v>0.07849168295753513</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02674828077429955</v>
+        <v>0.01247915707274186</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2148487313595467</v>
+        <v>0.1171674075059611</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1661806785542937</v>
+        <v>0.1422981312854583</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02133333333333333</v>
+        <v>0.01065719360568384</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.9982238010657194</v>
       </c>
     </row>
     <row r="7">
@@ -670,34 +670,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18416.15053763441</v>
+        <v>35788.86301369863</v>
       </c>
       <c r="C7" t="n">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1501398155830684</v>
+        <v>0.366121662709347</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2277436684220484</v>
+        <v>0.2008177408075416</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02170604713083926</v>
+        <v>0.05780469874479671</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03016367236756465</v>
+        <v>0.02812309667813223</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1295654060465714</v>
+        <v>0.2294493837246292</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1323833459500157</v>
+        <v>0.1642803448217128</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05376344086021505</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9946236559139785</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -705,31 +705,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7194.58382642998</v>
+        <v>51393.74363057325</v>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>628</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4975856207480157</v>
+        <v>0.257235473314821</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2150873699769127</v>
+        <v>0.2705787708868452</v>
       </c>
       <c r="F8" t="n">
-        <v>0.082365287457754</v>
+        <v>0.0507314244746194</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01138293340304812</v>
+        <v>0.03092498997316032</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1185385790089391</v>
+        <v>0.2154643038922539</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1389311698701054</v>
+        <v>0.1647149759918513</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007889546351084813</v>
+        <v>0.03503184713375796</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
